--- a/src/out/all-preprocessed.xlsx
+++ b/src/out/all-preprocessed.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,online bank,distribute database,database system,cryptography,tutorial</t>
+          <t>peer-to-peer,online bank,distribute database,database system,cryptography,tutorial</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>data mine,peer-to-peer compute,cryptography,internet,online bank,contract,bibliography</t>
+          <t>data mine,peer-to-peer,cryptography,internet,online bank,contract,bibliography</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bitcoin,ethereum,smart contract,cryptography,distribute database,advance configuration,power interface,authentication,parity bite</t>
+          <t>bitcoin,ethereum,contract,cryptography,distribute database,advance configuration,power interface,authentication,parity bite</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>microgrids,bitcoin,contract,process control,renewable energy source,peer-to-peer compute</t>
+          <t>microgrids,bitcoin,contract,process control,renewable energy source,peer-to-peer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bitcoin,peer-to-peer compute,organization,contract</t>
+          <t>bitcoin,peer-to-peer,organization,contract</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>protocol,peer-to-peer compute,contract,bitcoin,fault tolerance,fault tolerant system,law</t>
+          <t>protocol,peer-to-peer,contract,bitcoin,fault tolerance,fault tolerant system,law</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>algorithm design,analysis,bitcoin,peer-to-peer compute,server,safety,fault tolerance</t>
+          <t>algorithm design,analysis,bitcoin,peer-to-peer,server,safety,fault tolerance</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,medical service,bitcoin,industry,electrical engineer</t>
+          <t>peer-to-peer,medical service,bitcoin,industry,electrical engineer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>contract,peer-to-peer compute,security,monitor,smart home,intelligent sensor</t>
+          <t>contract,peer-to-peer,security,monitor,smart home,intelligent sensor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>bitcoin,peer-to-peer compute,bank,elliptic curve cryptography</t>
+          <t>bitcoin,peer-to-peer,bank,elliptic curve cryptography</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>blockchain,research framework,review,distributed ledger technology,digitalization</t>
+          <t>blockchain,research framework,review,distribute ledger,digitalization</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>bitcoin,smart contract,data integrity,open research,spectral leakage,extravasation,information privacy</t>
+          <t>bitcoin,contract,data integrity,open research,spectral leakage,extravasation,information privacy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bitcoin,software developer,open-source software,internet of things,software engineer,debugger,identity management,software development,smart contract,integrate development environment,primary source,program tool,simulation,ecosystem</t>
+          <t>bitcoin,software developer,open-source software,internet of things,software engineer,debugger,identity management,software development,contract,integrate development environment,primary source,program tool,simulation,ecosystem</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>bitcoin,cryptocurrency,smart contract,privacy</t>
+          <t>bitcoin,cryptocurrency,contract,privacy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,ride-hailing service,secure bill</t>
+          <t>contract,blockchain,ride-hailing service,secure bill</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>blockchain,bank,peer-to-peer compute,contract,finance,distribute database</t>
+          <t>blockchain,bank,peer-to-peer,contract,finance,distribute database</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>intrusion detection,peer-to-peer compute,bitcoin</t>
+          <t>intrusion detection,peer-to-peer,bitcoin</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,blockchain,biological system model,computational model,server,bay method,bitcoin</t>
+          <t>peer-to-peer,blockchain,biological system model,computational model,server,bay method,bitcoin</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,bitcoin,government,distribute ledger,peer-to-peer compute</t>
+          <t>blockchain,internet of things,bitcoin,government,distribute ledger,peer-to-peer</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,peer-to-peer compute,receiver,server,public key</t>
+          <t>bitcoin,blockchain,peer-to-peer,receiver,server,public key</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer compute,computer security,bitcoin,authorization,smart contract</t>
+          <t>blockchain,peer-to-peer,computer security,bitcoin,authorization,contract</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,internet of things,systematics,smart contract,distribute ledger,library</t>
+          <t>blockchain,bitcoin,internet of things,systematics,contract,distribute ledger,library</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,peer-to-peer compute,cryptography,distribute database,digital forensics</t>
+          <t>blockchain,contract,peer-to-peer,cryptography,distribute database,digital forensics</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>blockchain,security,technology,smart contract,consensus</t>
+          <t>blockchain,security,technology,contract,consensus</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,urban area,bitcoin,bibliography,sustainable development</t>
+          <t>peer-to-peer,urban area,bitcoin,bibliography,sustainable development</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>cryptography,digital signature,internet of things,peer-to-peer compute,big data</t>
+          <t>cryptography,digital signature,internet of things,peer-to-peer,big data</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,bitcoin,internet of things,cloud compute,computer architecture</t>
+          <t>peer-to-peer,bitcoin,internet of things,cloud compute,computer architecture</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>bitcoin,peer-to-peer compute,software,server</t>
+          <t>bitcoin,peer-to-peer,software,server</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>intrusion detection,collaboration,peer-to-peer compute,monitor,resistance</t>
+          <t>intrusion detection,collaboration,peer-to-peer,monitor,resistance</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bitcoin,privacy,peer-to-peer compute,proposal,history</t>
+          <t>bitcoin,privacy,peer-to-peer,proposal,history</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>legal contract,smart contract,blockchain</t>
+          <t>legal contract,contract,blockchain</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>blockchain,smart grid,smart contract,energy sector,electric utility,business process innovation,energy transformation</t>
+          <t>blockchain,smart grid,contract,energy sector,electric utility,business process innovation,energy transformation</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,dapp,architecture style,software architecture,internet of things</t>
+          <t>blockchain,contract,dapp,architecture style,software architecture,internet of things</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>smart place,blockchain,review,internet of things,smart contract,e-governance</t>
+          <t>smart place,blockchain,review,internet of things,contract,e-governance</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>blockchain,cyber attack,cryptocurrency exchange,ico,smart contract</t>
+          <t>blockchain,cyber attack,cryptocurrency exchange,ico,contract</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>blockchain,blockchain,crypto-spatial coordinate system,cryptography,distributed ledger technology,smart contract,internet of things,smart city,clinical trial,supply chain,pharmaceutical,healthcare</t>
+          <t>blockchain,blockchain,crypto-spatial coordinate system,cryptography,distribute ledger,contract,internet of things,smart city,clinical trial,supply chain,pharmaceutical,healthcare</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,smart contract,healthcare,patient,security</t>
+          <t>blockchain,distribute ledger,contract,healthcare,patient,security</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">bitcoin ,technology,smart contract,consensus,elliptic curve digital signature algorithm </t>
+          <t xml:space="preserve">bitcoin ,technology,contract,consensus,elliptic curve digital signature algorithm </t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,construction industry,build environment,socio-technical system</t>
+          <t>blockchain,distribute ledger,construction industry,build environment,socio-technical system</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology</t>
+          <t>blockchain,distribute ledger</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>smart contract,business process,trust third party,categorization,embed system</t>
+          <t>contract,business process,trust third party,categorization,embed system</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">bitcoin,cloud compute,next-generation network,internet of things,program paradigm,information privacy,cyber security,scalability,smart city,elasticity </t>
+          <t xml:space="preserve">bitcoin,cloud compute,next-generation network,internet of things,program paradigm,information privacy,security,scalability,smart city,elasticity </t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>smart contract,ethereum,best practice,business logic,encode,bitcoin</t>
+          <t>contract,ethereum,best practice,business logic,encode,bitcoin</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ethereum,smart contract,formal verification,vulnerability ,cryptocurrency,application security,solidity,arithmetic underflow,correctness ,distribute compute,computer data storage,categorization,autonomous robot,malware,code,signature block,h,y board,data access object</t>
+          <t>ethereum,contract,formal verification,vulnerability ,cryptocurrency,application security,solidity,arithmetic underflow,correctness ,distribute compute,computer data storage,categorization,autonomous robot,malware,code,signature block,h,y board,data access object</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>zero-knowledge proof,cryptography,distributed ledger technology</t>
+          <t>zero-knowledge proof,cryptography,distribute ledger</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>bitcoin,cryptocurrency,business process,behavior,apathy,gene regulatory network,genie,cryptosporidiosis,distributed ledger technology,capacity build</t>
+          <t>bitcoin,cryptocurrency,business process,behavior,apathy,gene regulatory network,genie,cryptosporidiosis,distribute ledger,capacity build</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>smart contract,ethereum,software bug,design by contract,immutable object,bitcoin,patch ,computer performance,stack exchange,categorization,flaw hypothesis methodology,software deployment</t>
+          <t>contract,ethereum,software bug,design by contract,immutable object,bitcoin,patch ,computer performance,stack exchange,categorization,flaw hypothesis methodology,software deployment</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>bitcoin,cryptocurrency,privacy,cryptography,internet of things,smart contract,non-interactive zero-knowledge proof,computer security,e-commerce,interactivity,requirement,antivirus software,algorithm</t>
+          <t>bitcoin,cryptocurrency,privacy,cryptography,internet of things,contract,non-interactive zero-knowledge proof,computer security,e-commerce,interactivity,requirement,antivirus software,algorithm</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart contract,ethereum,datalog,bitcoin,vulnerability ,trace </t>
+          <t xml:space="preserve">contract,ethereum,datalog,bitcoin,vulnerability ,trace </t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ethereum,smart contract,solidity,vulnerability ,debug,run time ,extensibility</t>
+          <t>ethereum,contract,solidity,vulnerability ,debug,run time ,extensibility</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>machine learn,bitcoin,reinforcement learn,artificial intelligence,big data</t>
+          <t>machine learning,bitcoin,reinforcement learn,artificial intelligence,big data</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>bitcoin,immutable object,right to be forget,requirement,smart contract,cryptography,general data protection regulation</t>
+          <t>bitcoin,immutable object,right to be forget,requirement,contract,cryptography,general data protection regulation</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>internet of things,bitcoin,information privacy,requirement,interoperability,encryption,scalability,information silo,centralize compute,smart contract,mechatronics,st,ards characteristic,cryptography,distribute database,computer security,floor,ceiling function,high- and low-level,protocol documentation,embed system,overhead ,server ,solution,contract agreement,node - plant part,physical object,convergence ,embed,genetic heterogeneity</t>
+          <t>internet of things,bitcoin,information privacy,requirement,interoperability,encryption,scalability,information silo,centralize compute,contract,mechatronics,st,ards characteristic,cryptography,distribute database,computer security,floor,ceiling function,high- and low-level,protocol documentation,embed system,overhead ,server ,solution,contract agreement,node - plant part,physical object,convergence ,embed,genetic heterogeneity</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>industry 4.0,bitcoin,robotics,smart contract,big data,internet of things</t>
+          <t>industry,bitcoin,robotics,contract,big data,internet of things</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve">attack surface,bitcoin,denial-of-service attack,smart contract,distribute compute,causality,context ,cryptography,nervous system disorder,theft,lope gorlin syndrome,cutlery fork,domain name,contribution,denial </t>
+          <t xml:space="preserve">attack surface,bitcoin,denial-of-service attack,contract,distribute compute,causality,context ,cryptography,nervous system disorder,theft,lope gorlin syndrome,cutlery fork,domain name,contribution,denial </t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,mine,smart contract,security,privacy</t>
+          <t>blockchain,cryptocurrency,mine,contract,security,privacy</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,cyber security,distributed ledger technology,internet of things,cryptocurrency,bitcoin</t>
+          <t>blockchain,contract,security,distribute ledger,internet of things,cryptocurrency,bitcoin</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ontological completeness,esml,socio-technical,legal relevance,antlr,blockchain,smart contract</t>
+          <t>ontological completeness,esml,socio-technical,legal relevance,antlr,blockchain,contract</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>smart contract,digital economy,blockchain</t>
+          <t>contract,digital economy,blockchain</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,electronic document,taxation</t>
+          <t>blockchain,contract,electronic document,taxation</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>smart contract,technology,islamic trade finance,digital bank,islamic finance</t>
+          <t>contract,technology,islamic trade finance,digital bank,islamic finance</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,application,legislation,colombia</t>
+          <t>blockchain,contract,application,legislation,colombia</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,peer-to-peer compute,ip network</t>
+          <t>bitcoin,blockchain,peer-to-peer,ip network</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,tutorial,peer-to-peer compute,public key,conference</t>
+          <t>blockchain,bitcoin,tutorial,peer-to-peer,public key,conference</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,systematics,cryptography,education,bibliography</t>
+          <t>blockchain,contract,systematics,cryptography,education,bibliography</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>blockchain,oil,natural gas industry,peer-to-peer compute,natural gas,security,distribute database</t>
+          <t>blockchain,oil,natural gas industry,peer-to-peer,natural gas,security,distribute database</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer compute,computer crime,authentication,bitcoin</t>
+          <t>blockchain,peer-to-peer,computer crime,authentication,bitcoin</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>blockchain,protocol,game,game theory,cryptography,peer-to-peer compute</t>
+          <t>blockchain,protocol,game,game theory,cryptography,peer-to-peer</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>blockchain,industry,organization,cryptography,smart contract</t>
+          <t>blockchain,industry,organization,cryptography,contract</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer compute,privacy,digital signature,information technology,consensus</t>
+          <t>blockchain,peer-to-peer,privacy,digital signature,information technology,consensus</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer compute,consensus,protocol,bitcoin,fabric</t>
+          <t>blockchain,peer-to-peer,consensus,protocol,bitcoin,fabric</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>blockchain,edge compute,bitcoin,peer-to-peer compute,scalability,cloud compute</t>
+          <t>blockchain,edge compute,bitcoin,peer-to-peer,scalability,cloud compute</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,machine learn,decision make,machine learn algorithm,data mine</t>
+          <t>blockchain,contract,machine learning,decision make,machine learn algorithm,data mine</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>blockchain,computer architecture,smart contract,government,cloud compute,systematics,bitcoin</t>
+          <t>blockchain,computer architecture,contract,government,cloud compute,systematics,bitcoin</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>government,industry,peer-to-peer compute,contract</t>
+          <t>government,industry,peer-to-peer,contract</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,security,law,reliability,taxonomy</t>
+          <t>contract,blockchain,security,law,reliability,taxonomy</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,peer-to-peer compute,digital signature,computer architecture,government</t>
+          <t>blockchain,bitcoin,peer-to-peer,digital signature,computer architecture,government</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>industry,medical service,peer-to-peer compute,internet of things,contract,production</t>
+          <t>industry,medical service,peer-to-peer,internet of things,contract,production</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,security,peer-to-peer compute,data collection,database,smart contract</t>
+          <t>blockchain,internet of things,security,peer-to-peer,data collection,database,contract</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,smart contract,peer-to-peer compute,internet of things</t>
+          <t>blockchain,bitcoin,contract,peer-to-peer,internet of things</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer compute,digital signature,bitcoin,public key,task analysis</t>
+          <t>blockchain,peer-to-peer,digital signature,bitcoin,public key,task analysis</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>smart city,blockchain,security,sociology,statistic,peer-to-peer compute</t>
+          <t>smart city,blockchain,security,sociology,statistic,peer-to-peer</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,consensus,peer-to-peer compute,scalability,market research</t>
+          <t>blockchain,bitcoin,consensus,peer-to-peer,scalability,market research</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,peer-to-peer compute,proof-of-work,smart contract</t>
+          <t>blockchain,bitcoin,peer-to-peer,proof-of-work,contract</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>blockchain,consensus,peer-to-peer compute,classification algorithm,bitcoin,database</t>
+          <t>blockchain,consensus,peer-to-peer,classification algorithm,bitcoin,database</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,internet of things,cloud compute,cryptography,medical service</t>
+          <t>peer-to-peer,internet of things,cloud compute,cryptography,medical service</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>blockchain,industry,smart contract,art,technological innovation</t>
+          <t>blockchain,industry,contract,art,technological innovation</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,computational model,model check,syntactics</t>
+          <t>contract,blockchain,computational model,model check,syntactics</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>cloud compute,blockchain,edge compute,smart contract,computer architecture,internet of things,control system</t>
+          <t>cloud compute,blockchain,edge compute,contract,computer architecture,internet of things,control system</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>blockchain,stakeholder,smart contract,cryptography,peer-to-peer compute</t>
+          <t>blockchain,stakeholder,contract,cryptography,peer-to-peer</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>microgrids,power market,blockchain,power system stability,peer-to-peer compute,distribute power generation</t>
+          <t>microgrids,power market,blockchain,power system stability,peer-to-peer,distribute power generation</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,peer-to-peer compute,systematics,bitcoin</t>
+          <t>contract,blockchain,peer-to-peer,systematics,bitcoin</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,hardware architecture,review,consensus,heterogeneous hardware,fpga,gpu,asic,cpu</t>
+          <t>blockchain,distribute ledger,hardware architecture,review,consensus,heterogeneous hardware,fpga,gpu,asic,cpu</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>blockchain,protocol,peer-to-peer compute,bitcoin,history,privacy</t>
+          <t>blockchain,protocol,peer-to-peer,bitcoin,history,privacy</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,bitcoin,blockchain,explosive,online bank,ip network</t>
+          <t>peer-to-peer,bitcoin,blockchain,explosive,online bank,ip network</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>protocol,blockchain,distribute ledger,peer-to-peer compute,fault tolerance,fault tolerant system,systematics</t>
+          <t>protocol,blockchain,distribute ledger,peer-to-peer,fault tolerance,fault tolerant system,systematics</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>blockchain,radiology,bitcoin,ethereum,machine learn</t>
+          <t>blockchain,radiology,bitcoin,ethereum,machine learning</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>ips2,blockchain,smart contract</t>
+          <t>ips2,blockchain,contract</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>blockchain,data management,smart contract,consensus,data share</t>
+          <t>blockchain,data management,contract,consensus,data share</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,healthcare technology,health informatics,supply chain,clinical trial,medical licensure,genomics,electronic health record</t>
+          <t>blockchain,distribute ledger,healthcare technology,health informatics,supply chain,clinical trial,medical licensure,genomics,electronic health record</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>distribute ledger,blockchain,smart contract,ethereum,access control,xacml</t>
+          <t>distribute ledger,blockchain,contract,ethereum,access control,xacml</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>coordination,smart contract,linda on ethereum,linda on fabric,linda on corda</t>
+          <t>coordination,contract,linda on ethereum,linda on fabric,linda on corda</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>ethereum,smart contract,sealed-bid auction</t>
+          <t>ethereum,contract,sealed-bid auction</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>blockchain,artificial intelligence,deep learning,machine learn,encryption,decentralize consensus,ethereum,hyperledger,electronic medical record,emr,pharma,insurance,health information exchange,internet of things,pharmacogenomics,robotics,precision medicine</t>
+          <t>blockchain,artificial intelligence,deep learning,machine learning,encryption,decentralize consensus,ethereum,hyperledger,electronic medical record,emr,pharma,insurance,health information exchange,internet of things,pharmacogenomics,robotics,precision medicine</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -13730,7 +13730,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>blockchain,cybercrime,cyber security,healthcare,critical national infrastructure ,scada,threat factor,red team,cyberwarfare,data breach,cyber operation</t>
+          <t>blockchain,cybercrime,security,healthcare,critical national infrastructure ,scada,threat factor,red team,cyberwarfare,data breach,cyber operation</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>aesthetic,blockchain,smart contract,critical technical practice,interactional aesthetic</t>
+          <t>aesthetic,blockchain,contract,critical technical practice,interactional aesthetic</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,bitcoin,smart contract,microgrid,distribute ledger,distribute mobility service,autonomous vehicle,ridesharing,renewable energy,distribute generation,photovoltaic,electric vehicle,solar energy,electric grid</t>
+          <t>blockchain,cryptocurrency,bitcoin,contract,microgrid,distribute ledger,distribute mobility service,autonomous vehicle,ridesharing,renewable energy,distribute generation,photovoltaic,electric vehicle,solar energy,electric grid</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>industrial iot,industry 4.0,industry 4.0,blockchain,cyber security,supply chain,data privacy,cryptography</t>
+          <t>industrial iot,industry,industry,blockchain,security,supply chain,data privacy,cryptography</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>blockchain,decentralize,peer-to-peer,distribute ledger,smart contract,pharmaceutical supply chain</t>
+          <t>blockchain,decentralize,peer-to-peer,distribute ledger,contract,pharmaceutical supply chain</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>blockchain,artificial intelligence,decentralize network,cryptocurrency,machine learn,deep learning</t>
+          <t>blockchain,artificial intelligence,decentralize network,cryptocurrency,machine learning,deep learning</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>blockchain,anomaly detection,data mine,graph analysis,cyber security</t>
+          <t>blockchain,anomaly detection,data mine,graph analysis,security</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>technology,healthcare,electronic health record ,distributed ledger technology,security,privacy-preserving,decentralise application</t>
+          <t>technology,healthcare,electronic health record ,distribute ledger,security,privacy-preserving,decentralise application</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>blockchain,cyber security,cyber attack,network supervision</t>
+          <t>blockchain,security,cyber attack,network supervision</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -15867,7 +15867,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,conceptualization,terminology,technology adoption,o39</t>
+          <t>blockchain,distribute ledger,conceptualization,terminology,technology adoption,o39</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,project ecosystem,technical,legal issue</t>
+          <t>blockchain,contract,project ecosystem,technical,legal issue</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>blockchain,byzantine fault tolerance,distributed ledger technology,bitcoin,distribute system</t>
+          <t>blockchain,byzantine fault tolerance,distribute ledger,bitcoin,distribute system</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>smart contract,software engineer,blockchain</t>
+          <t>contract,software engineer,blockchain</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>blockchain,security,internet of things,smart contract,artificial intelligence,cloud compute</t>
+          <t>blockchain,security,internet of things,contract,artificial intelligence,cloud compute</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -16747,7 +16747,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,distribute system,internet of things,security</t>
+          <t>blockchain,distribute ledger,distribute system,internet of things,security</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,electronic payment,decentralize payment system,mine,energy efficiency,bitcoin,ethereum,monero,smart contract,ransomware,profitability</t>
+          <t>blockchain,cryptocurrency,electronic payment,decentralize payment system,mine,energy efficiency,bitcoin,ethereum,monero,contract,ransomware,profitability</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -17354,7 +17354,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,use case</t>
+          <t>blockchain,contract,use case</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart contract,formal specification,formal verification,verification,validation,computer program,bitcoin,correctness </t>
+          <t xml:space="preserve">contract,formal specification,formal verification,verification,validation,computer program,bitcoin,correctness </t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>smart contract,ethereum,review,ecosystem</t>
+          <t>contract,ethereum,review,ecosystem</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>ethereum,self-destruct,smart contract,vector ,sensor</t>
+          <t>ethereum,self-destruct,contract,vector ,sensor</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -18090,7 +18090,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>machine learn,privacy,internet of things,algorithm,bitcoin,categorization,database</t>
+          <t>machine learning,privacy,internet of things,algorithm,bitcoin,categorization,database</t>
         </is>
       </c>
       <c r="E408" t="inlineStr"/>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>bitcoin,cryptocurrency,focus group,smart contract,centralize compute,librarian,money,formal verification,entity</t>
+          <t>bitcoin,cryptocurrency,focus group,contract,centralize compute,librarian,money,formal verification,entity</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>bitcoin,concept map,smart contract,review,digital electronics</t>
+          <t>bitcoin,concept map,contract,review,digital electronics</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>artificial intelligence,technological convergence,scope ,distributed ledger technology,review,lively kernel</t>
+          <t>artificial intelligence,technological convergence,scope ,distribute ledger,review,lively kernel</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>blockchain,sidechains,smart contract,decentralize application,decentralize ledger,digital asset,cryptocurrency</t>
+          <t>blockchain,sidechains,contract,decentralize application,decentralize ledger,digital asset,cryptocurrency</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,smart contract,distribute application</t>
+          <t>blockchain,distribute ledger,contract,distribute application</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,verification,correctness,security assurance</t>
+          <t>contract,blockchain,verification,correctness,security assurance</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -19282,7 +19282,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart contract,development process model,software engineer,blockchain,distributed ledger technology,survey,design science,trustless append-only decentralize digital ledger </t>
+          <t xml:space="preserve">contract,development process model,software engineer,blockchain,distribute ledger,survey,design science,trustless append-only decentralize digital ledger </t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -19457,7 +19457,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>network,network property,cyber security,security protocol</t>
+          <t>network,network property,security,security protocol</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -19930,7 +19930,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,51% attack,proof-of-work,proof-of-stake,dpos</t>
+          <t>blockchain,contract,51% attack,proof-of-work,proof-of-stake,dpos</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,peer-to-peer compute,fee,data model,reliability,ecosystem</t>
+          <t>blockchain,contract,peer-to-peer,fee,data model,reliability,ecosystem</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,supply chain,peer-to-peer compute,distribute ledger,systematics,bibliography</t>
+          <t>blockchain,contract,supply chain,peer-to-peer,distribute ledger,systematics,bibliography</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>blockchain,medical service,scalability,systematics,peer-to-peer compute,database,data mine</t>
+          <t>blockchain,medical service,scalability,systematics,peer-to-peer,database,data mine</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>blockchain,smart phone,peer-to-peer compute,task analysis,security,performance evaluation</t>
+          <t>blockchain,smart phone,peer-to-peer,task analysis,security,performance evaluation</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>blockchain,cyber security,ddos,bitcoin</t>
+          <t>blockchain,security,ddos,bitcoin</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,distribute database,web server,file system,b,width,rout</t>
+          <t>peer-to-peer,distribute database,web server,file system,b,width,rout</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -20575,7 +20575,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>blockchain,security,peer-to-peer compute,software define network,computer architecture,software,control system</t>
+          <t>blockchain,security,peer-to-peer,software define network,computer architecture,software,control system</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -20704,7 +20704,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,publish,bitcoin,protocol</t>
+          <t>peer-to-peer,publish,bitcoin,protocol</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>blockchain,distributed ledger technology,performance model,performance evaluation,systematic survey</t>
+          <t>blockchain,distribute ledger,performance model,performance evaluation,systematic survey</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -20919,7 +20919,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>consensus,peer-to-peer compute,industry,cloud compute,blockchain,security,ecosystem</t>
+          <t>consensus,peer-to-peer,industry,cloud compute,blockchain,security,ecosystem</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>peer-to-peer compute,physical layer,price,energy management,blockchain,energy resource,australia</t>
+          <t>peer-to-peer,physical layer,price,energy management,blockchain,energy resource,australia</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,smart contract,smart contract application,smart contract operation,recent advance in smart contract</t>
+          <t>bitcoin,blockchain,contract,smart contract application,smart contract operation,recent advance in smart contract</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -21134,7 +21134,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>education,library,biological system model,adaptation model,peer-to-peer compute</t>
+          <t>education,library,biological system model,adaptation model,peer-to-peer</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>internet of thing ,security,blockchain,ddos,ethereum,smart contract</t>
+          <t>internet of thing ,security,blockchain,ddos,ethereum,contract</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -21521,7 +21521,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>smart city,blockchain,security,privacy,consensus,smart contract,smart community</t>
+          <t>smart city,blockchain,security,privacy,consensus,contract,smart community</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>internet of things,security,machine learn,artificial intelligence,technology</t>
+          <t>internet of things,security,machine learning,artificial intelligence,technology</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -22643,7 +22643,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,cryptocurrency,share resource,internet 3.0</t>
+          <t>blockchain,contract,cryptocurrency,share resource,internet 3.0</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,distribute registry,public procurement,electronic registration,international trade deal,к10,k15,k41,o38,l88</t>
+          <t>contract,blockchain,distribute registry,public procurement,electronic registration,international trade deal,к10,k15,k41,o38,l88</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>blockchain,ttp,cyberattacks,decentralise,distributed ledger technology,artificial intelligence,internet of things</t>
+          <t>blockchain,ttp,cyberattacks,decentralise,distribute ledger,artificial intelligence,internet of things</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -23557,7 +23557,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,smart contract,disruptive technology</t>
+          <t>blockchain,distribute ledger,contract,disruptive technology</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>blockchain,decentralize network,merkle tree,consensus,smart contract,hyperledger</t>
+          <t>blockchain,decentralize network,merkle tree,consensus,contract,hyperledger</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -23693,7 +23693,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,decentralization,immutable,data privacy</t>
+          <t>blockchain,contract,decentralization,immutable,data privacy</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -23736,7 +23736,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>blockchain,cyber security,privacy,trust,cryptocurrency,cyberspace,smart contract,decentralization,peer-to-peer network,cyber security,protocol,cryptography</t>
+          <t>blockchain,security,privacy,trust,cryptocurrency,cyberspace,contract,decentralization,peer-to-peer network,security,protocol,cryptography</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>blockchain,industry 4.0,another keyword</t>
+          <t>blockchain,industry,another keyword</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -24229,7 +24229,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>taxonomy,construction supply chain,threat model analysis,security level analysis,cyber security,vulnerability,smart contract,cyber attack</t>
+          <t>taxonomy,construction supply chain,threat model analysis,security level analysis,security,vulnerability,contract,cyber attack</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>smart contract,ethereum,blockchain</t>
+          <t>contract,ethereum,blockchain</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>blockchain,artificial intelligence,distribute ledger,machine learn,smart contract</t>
+          <t>blockchain,artificial intelligence,distribute ledger,machine learning,contract</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -24901,7 +24901,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>reputation system,blockchain,smart contract,e-commerce,hyperledger</t>
+          <t>reputation system,blockchain,contract,e-commerce,hyperledger</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -25118,7 +25118,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,evaluation framework,empirical evaluation</t>
+          <t>blockchain,contract,evaluation framework,empirical evaluation</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -25161,7 +25161,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>tor,blockchain,cyber security,anonymity,privacy,cyber attack,onion service,pii,encryption,security</t>
+          <t>tor,blockchain,security,anonymity,privacy,cyber attack,onion service,pii,encryption,security</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -25594,7 +25594,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>account,technology,bitcoin,cryptocurrency,cyber security,fraud,transparency</t>
+          <t>account,technology,bitcoin,cryptocurrency,security,fraud,transparency</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -25813,7 +25813,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>blockchain,smart contract,supply chain,project management,construction</t>
+          <t>blockchain,contract,supply chain,project management,construction</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -25945,7 +25945,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>blockchain,health 4.0,industry 4.0,decentralization,data management,trust,traceability,supply chain</t>
+          <t>blockchain,health 4.0,industry,decentralization,data management,trust,traceability,supply chain</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -26118,7 +26118,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>blockchain,certificate authority,cloud compute,public key infrastructure,smart contract,byzantine fault tolerance,state machine replication,partition,sharding</t>
+          <t>blockchain,certificate authority,cloud compute,public key infrastructure,contract,byzantine fault tolerance,state machine replication,partition,sharding</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,bank industry,smart contract</t>
+          <t>blockchain,distribute ledger,bank industry,contract</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -26647,7 +26647,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>blockchain,bpmn,business process,smart contract,temporal constraint,trust</t>
+          <t>blockchain,bpmn,business process,contract,temporal constraint,trust</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,energy consumption,distributed ledger technology,sustainability</t>
+          <t>blockchain,cryptocurrency,energy consumption,distribute ledger,sustainability</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -27256,7 +27256,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>blockchain,security,cryptocurrency,smart contract</t>
+          <t>blockchain,security,cryptocurrency,contract</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>smart contract,blockchain,cryptocurrency,decentralization</t>
+          <t>contract,blockchain,cryptocurrency,decentralization</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -27342,7 +27342,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>5g network,blockchain,5g internet of thing,5g service,machine learn,security,privacy</t>
+          <t>5g network,blockchain,5g internet of thing,5g service,machine learning,security,privacy</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">

--- a/src/out/all-preprocessed.xlsx
+++ b/src/out/all-preprocessed.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,business innovation,public ledger,computational trust</t>
+          <t>bitcoin,nothing,business innovation,public ledger,computational trust</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>blockchain,decentralization,bank industry transformation</t>
+          <t>nothing,decentralization,bank industry transformation</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>blockchain,equity crowdfunding,equity registration,transaction,vote of shareholder,regulation of equity crowdfunding</t>
+          <t>nothing,equity crowdfunding,equity registration,transaction,vote of shareholder,regulation of equity crowdfunding</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>blockchain,transparency,reproducibility,data share,privacy</t>
+          <t>nothing,transparency,reproducibility,data share,privacy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>blockchain,blockchain,business model,disintegration,digital currency</t>
+          <t>nothing,nothing,business model,disintegration,digital currency</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>blockchain,risk,model,petri net</t>
+          <t>nothing,risk,model,petri net</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>blockchain,research framework,review,distribute ledger,digitalization</t>
+          <t>nothing,research framework,nothing,distribute ledger,digitalization</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>enterprise ontology,business model ontology,rea,blockchain</t>
+          <t>enterprise ontology,business model ontology,rea,nothing</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>bitcoin,review,component-based software engineer,high- and low-level,noise shape</t>
+          <t>bitcoin,nothing,component-based software engineer,high- and low-level,noise shape</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>blockchain,cod,smart contract platform,smart contract program,decentralize compute,development</t>
+          <t>nothing,cod,smart contract platform,smart contract program,decentralize compute,development</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>contract,blockchain,ride-hailing service,secure bill</t>
+          <t>contract,nothing,ride-hailing service,secure bill</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,hardware,software,data mine,proof-of-work</t>
+          <t>bitcoin,nothing,hardware,software,data mine,proof-of-work</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>blockchain,bank,peer-to-peer,contract,finance,distribute database</t>
+          <t>nothing,bank,peer-to-peer,contract,finance,distribute database</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>peer-to-peer,blockchain,biological system model,computational model,server,bay method,bitcoin</t>
+          <t>peer-to-peer,nothing,biological system model,computational model,server,bay method,bitcoin</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,bitcoin,tool,analytics,digital forensics,cybercrime investigation</t>
+          <t>nothing,cryptocurrency,bitcoin,tool,analytics,digital forensics,cybercrime investigation</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,bitcoin,government,distribute ledger,peer-to-peer</t>
+          <t>nothing,internet of things,bitcoin,government,distribute ledger,peer-to-peer</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,peer-to-peer,receiver,server,public key</t>
+          <t>bitcoin,nothing,peer-to-peer,receiver,server,public key</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer,computer security,bitcoin,authorization,contract</t>
+          <t>nothing,peer-to-peer,computer security,bitcoin,authorization,contract</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,internet of things,systematics,contract,distribute ledger,library</t>
+          <t>nothing,bitcoin,internet of things,systematics,contract,distribute ledger,library</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>blockchain,contract,peer-to-peer,cryptography,distribute database,digital forensics</t>
+          <t>nothing,contract,peer-to-peer,cryptography,distribute database,digital forensics</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,internet of things,sensor,machine-to-machine communication,scalability,distribute ledger</t>
+          <t>nothing,bitcoin,internet of things,sensor,machine-to-machine communication,scalability,distribute ledger</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>blockchain,security,technology,contract,consensus</t>
+          <t>nothing,security,technology,contract,consensus</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>blockchain,share economy,trust,trust-free system,review</t>
+          <t>nothing,share economy,trust,trust-free system,nothing</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>cyber-physical system-of-systems,industrial internet of thing,interoperability of information,distribute compute,fault tolerance,consensus,blockchain,self-organisation</t>
+          <t>cyber-physical system-of-systems,industrial internet of thing,interoperability of information,distribute compute,fault tolerance,consensus,nothing,self-organisation</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>blockchain,healthcare,holistic approach,system design</t>
+          <t>nothing,healthcare,holistic approach,system design</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>legal contract,contract,blockchain</t>
+          <t>legal contract,contract,nothing</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>scientific communication,virtual scientific communication,scientific,information service,scientific,information support,blockchain,hash function,project management,vote-based consensus</t>
+          <t>scientific communication,virtual scientific communication,scientific,information service,scientific,information support,nothing,hash function,project management,vote-based consensus</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>blockchain,initial coin offer ,technology neutrality,regulatory s,box,insolvency law</t>
+          <t>nothing,initial coin offer ,technology neutrality,regulatory s,box,insolvency law</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>blockchain,konsensalgorithmus,asymmetrische verschlüsselung,proof-of-work,verteilte buchführung,kryptowährung,blockchain,consensus,asymmetric encryption,proof-of-work,distibuted ledger,cryptocurrency</t>
+          <t>nothing,konsensalgorithmus,asymmetrische verschlüsselung,proof-of-work,verteilte buchführung,kryptowährung,nothing,consensus,asymmetric encryption,proof-of-work,distibuted ledger,cryptocurrency</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>blockchain,transaction network,bitcoin adoption</t>
+          <t>nothing,transaction network,bitcoin adoption</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>blockchain,information protection,architecture,security,certification</t>
+          <t>nothing,information protection,architecture,security,certification</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,proof-of-work,quantum mechanic,heisenberg uncertainty principle,neuroscience</t>
+          <t>nothing,bitcoin,proof-of-work,quantum mechanic,heisenberg uncertainty principle,neuroscience</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>blockchain,smart grid,contract,energy sector,electric utility,business process innovation,energy transformation</t>
+          <t>nothing,smart grid,contract,energy sector,electric utility,business process innovation,energy transformation</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>blockchain,credit ration,information asymmetry,smes finance,g21,g30,o33</t>
+          <t>nothing,credit ration,information asymmetry,smes finance,g21,g30,o33</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>blockchain,contract,dapp,architecture style,software architecture,internet of things</t>
+          <t>nothing,contract,dapp,architecture style,software architecture,internet of things</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>blockchain,distribute system,decentralize feature,internet of things</t>
+          <t>nothing,distribute system,decentralize feature,internet of things</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>blockchain,citizen broadb,radio service,cognitive radio,mobile broadb,,spectrum share,5g</t>
+          <t>nothing,citizen broadb,radio service,cognitive radio,mobile broadb,,spectrum share,5g</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>blockchain,review,technology usage,emerge technology</t>
+          <t>nothing,nothing,technology usage,emerge technology</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>smart place,blockchain,review,internet of things,contract,e-governance</t>
+          <t>smart place,nothing,nothing,internet of things,contract,e-governance</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>blockchain,cyber attack,cryptocurrency exchange,ico,contract</t>
+          <t>nothing,cyber attack,cryptocurrency exchange,ico,contract</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>multi-agent system,blockchain,review</t>
+          <t>multi-agent system,nothing,nothing</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>blockchain,tourism,review,trust,transparency</t>
+          <t>nothing,tourism,nothing,trust,transparency</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>agriculture,blockchain,review</t>
+          <t>agriculture,nothing,nothing</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">technology,smart home,food supply chain,blockchain,hazard analysis,critical control point </t>
+          <t xml:space="preserve">technology,smart home,food supply chain,nothing,hazard analysis,critical control point </t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>blockchain,review,business,application</t>
+          <t>nothing,nothing,business,application</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,privacy,security</t>
+          <t>nothing,internet of things,privacy,security</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>blockchain,blockchain,crypto-spatial coordinate system,cryptography,distribute ledger,contract,internet of things,smart city,clinical trial,supply chain,pharmaceutical,healthcare</t>
+          <t>nothing,nothing,crypto-spatial coordinate system,cryptography,distribute ledger,contract,internet of things,smart city,clinical trial,supply chain,pharmaceutical,healthcare</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,contract,healthcare,patient,security</t>
+          <t>nothing,distribute ledger,contract,healthcare,patient,security</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,queue theory,matrix-geometric solution,mine process,block-generation process,process</t>
+          <t>nothing,bitcoin,queue theory,matrix-geometric solution,mine process,block-generation process,process</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>digital identity,blockchain,ibe</t>
+          <t>digital identity,nothing,ibe</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,construction industry,build environment,socio-technical system</t>
+          <t>nothing,distribute ledger,construction industry,build environment,socio-technical system</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger</t>
+          <t>nothing,distribute ledger</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,distribute ledger,supply chain,logistics</t>
+          <t>nothing,cryptocurrency,distribute ledger,supply chain,logistics</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>blockchain,develop country,adoption constraint</t>
+          <t>nothing,develop country,adoption constraint</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>privacy,anonymity,blockchain,cryptography,cryptocurrency</t>
+          <t>privacy,anonymity,nothing,cryptography,cryptocurrency</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,mine,contract,security,privacy</t>
+          <t>nothing,cryptocurrency,mine,contract,security,privacy</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>blockchain,contract,security,distribute ledger,internet of things,cryptocurrency,bitcoin</t>
+          <t>nothing,contract,security,distribute ledger,internet of things,cryptocurrency,bitcoin</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>bitcoin,mine,blockchain,energy,consumption</t>
+          <t>bitcoin,mine,nothing,energy,consumption</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>blockchain,agriculture sector,educational background,supply chain</t>
+          <t>nothing,agriculture sector,educational background,supply chain</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,security,smart home,transaction,bitcoin</t>
+          <t>nothing,internet of things,security,smart home,transaction,bitcoin</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>cryptocurrency,blockchain,sentiment analysis,forecast,ico,csai,cloud compute</t>
+          <t>cryptocurrency,nothing,sentiment analysis,forecast,ico,csai,cloud compute</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>technology,legal framework,cryptocurrency,review</t>
+          <t>technology,legal framework,cryptocurrency,nothing</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ontological completeness,esml,socio-technical,legal relevance,antlr,blockchain,contract</t>
+          <t>ontological completeness,esml,socio-technical,legal relevance,antlr,nothing,contract</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>contract,digital economy,blockchain</t>
+          <t>contract,digital economy,nothing</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>blockchain,contract,electronic document,taxation</t>
+          <t>nothing,contract,electronic document,taxation</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>computability,turing complete language,blockchain</t>
+          <t>computability,turing complete language,nothing</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>blockchain,contract,application,legislation,colombia</t>
+          <t>nothing,contract,application,legislation,colombia</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>cryptocurrency,bitcoin,blockchain,portfolio management</t>
+          <t>cryptocurrency,bitcoin,nothing,portfolio management</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,peer-to-peer,ip network</t>
+          <t>bitcoin,nothing,peer-to-peer,ip network</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>cryptocurrency,control system,blockchain,bank,economics,investment</t>
+          <t>cryptocurrency,control system,nothing,bank,economics,investment</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,tutorial,peer-to-peer,public key,conference</t>
+          <t>nothing,bitcoin,tutorial,peer-to-peer,public key,conference</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>blockchain,medium,watermarking,server,plagiarism,public key</t>
+          <t>nothing,medium,watermarking,server,plagiarism,public key</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>blockchain,conference,internet of things,security,privacy,augment reality,artificial intelligence</t>
+          <t>nothing,conference,internet of things,security,privacy,augment reality,artificial intelligence</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>blockchain,security,internet of things,computer architecture,cloud compute,battery,market research</t>
+          <t>nothing,security,internet of things,computer architecture,cloud compute,battery,market research</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>blockchain,encryption,data integrity,cloud compute security,data privacy</t>
+          <t>nothing,encryption,data integrity,cloud compute security,data privacy</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>blockchain,contract,systematics,cryptography,education,bibliography</t>
+          <t>nothing,contract,systematics,cryptography,education,bibliography</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>blockchain,consensus,permissioned,permissionless blockchain,bitcoin,proof-of-work,proof-of-stake,pob,cryptocurrency</t>
+          <t>nothing,consensus,permissioned,permissionless blockchain,bitcoin,proof-of-work,proof-of-stake,pob,cryptocurrency</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>blockchain,oil,natural gas industry,peer-to-peer,natural gas,security,distribute database</t>
+          <t>nothing,oil,natural gas industry,peer-to-peer,natural gas,security,distribute database</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer,computer crime,authentication,bitcoin</t>
+          <t>nothing,peer-to-peer,computer crime,authentication,bitcoin</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>blockchain,protocol,game,game theory,cryptography,peer-to-peer</t>
+          <t>nothing,protocol,game,game theory,cryptography,peer-to-peer</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>blockchain,privacy,data privacy,proposal,bitcoin</t>
+          <t>nothing,privacy,data privacy,proposal,bitcoin</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>blockchain,supply chain,digital signature,distribute ledger,distribute database</t>
+          <t>nothing,supply chain,digital signature,distribute ledger,distribute database</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>blockchain,smart grid,consensus,cryptography,industry,renewable energy source</t>
+          <t>nothing,smart grid,consensus,cryptography,industry,renewable energy source</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>medical service,security,industry,blockchain,software,internet of things,computer architecture</t>
+          <t>medical service,security,industry,nothing,software,internet of things,computer architecture</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>blockchain,industry,organization,cryptography,contract</t>
+          <t>nothing,industry,organization,cryptography,contract</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer,privacy,digital signature,information technology,consensus</t>
+          <t>nothing,peer-to-peer,privacy,digital signature,information technology,consensus</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9973,7 +9973,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer,consensus,protocol,bitcoin,fabric</t>
+          <t>nothing,peer-to-peer,consensus,protocol,bitcoin,fabric</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>blockchain,edge compute,bitcoin,peer-to-peer,scalability,cloud compute</t>
+          <t>nothing,edge compute,bitcoin,peer-to-peer,scalability,cloud compute</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>blockchain,contract,machine learning,decision make,machine learn algorithm,data mine</t>
+          <t>nothing,contract,machine learning,decision make,machine learn algorithm,data mine</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>blockchain,computer architecture,contract,government,cloud compute,systematics,bitcoin</t>
+          <t>nothing,computer architecture,contract,government,cloud compute,systematics,bitcoin</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>blockchain,security,technological innovation,internet of things,server,organization,interoperability</t>
+          <t>nothing,security,technological innovation,internet of things,server,organization,interoperability</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>contract,blockchain,security,law,reliability,taxonomy</t>
+          <t>contract,nothing,security,law,reliability,taxonomy</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,peer-to-peer,digital signature,computer architecture,government</t>
+          <t>nothing,bitcoin,peer-to-peer,digital signature,computer architecture,government</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,security,peer-to-peer,data collection,database,contract</t>
+          <t>nothing,internet of things,security,peer-to-peer,data collection,database,contract</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>review,success factor,technology,pharmaceutical industry</t>
+          <t>nothing,success factor,technology,pharmaceutical industry</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10450,7 +10450,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,contract,peer-to-peer,internet of things</t>
+          <t>nothing,bitcoin,contract,peer-to-peer,internet of things</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>blockchain,peer-to-peer,digital signature,bitcoin,public key,task analysis</t>
+          <t>nothing,peer-to-peer,digital signature,bitcoin,public key,task analysis</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>blockchain,blockchain,internet of things</t>
+          <t>nothing,nothing,internet of things</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>smart city,blockchain,security,sociology,statistic,peer-to-peer</t>
+          <t>smart city,nothing,security,sociology,statistic,peer-to-peer</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,consensus,peer-to-peer,scalability,market research</t>
+          <t>nothing,bitcoin,consensus,peer-to-peer,scalability,market research</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>smart home,internet of things,blockchain,privacy,authentication,delay</t>
+          <t>smart home,internet of things,nothing,privacy,authentication,delay</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,peer-to-peer,proof-of-work,contract</t>
+          <t>nothing,bitcoin,peer-to-peer,proof-of-work,contract</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>blockchain,industry,automotive engineer,computer security,biological system model,automobile</t>
+          <t>nothing,industry,automotive engineer,computer security,biological system model,automobile</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>blockchain,industry,smart manufacture,production facility,next generation network,internet,computer crime</t>
+          <t>nothing,industry,smart manufacture,production facility,next generation network,internet,computer crime</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,bibliography,computer science,company,task analysis</t>
+          <t>nothing,internet of things,bibliography,computer science,company,task analysis</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>blockchain,consensus,peer-to-peer,classification algorithm,bitcoin,database</t>
+          <t>nothing,consensus,peer-to-peer,classification algorithm,bitcoin,database</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>blockchain,industry,contract,art,technological innovation</t>
+          <t>nothing,industry,contract,art,technological innovation</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>contract,blockchain,computational model,model check,syntactics</t>
+          <t>contract,nothing,computational model,model check,syntactics</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>cloud compute,blockchain,edge compute,contract,computer architecture,internet of things,control system</t>
+          <t>cloud compute,nothing,edge compute,contract,computer architecture,internet of things,control system</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>blockchain,stakeholder,contract,cryptography,peer-to-peer</t>
+          <t>nothing,stakeholder,contract,cryptography,peer-to-peer</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>internet of things,blockchain,protocol,radiofrequency identification,computer crime</t>
+          <t>internet of things,nothing,protocol,radiofrequency identification,computer crime</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>blockchain,healthcare,ehr,phr,survey</t>
+          <t>nothing,healthcare,ehr,phr,survey</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>medical service,cloud compute,blockchain,biomedical image,data privacy,cryptography</t>
+          <t>medical service,cloud compute,nothing,biomedical image,data privacy,cryptography</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>microgrids,power market,blockchain,power system stability,peer-to-peer,distribute power generation</t>
+          <t>microgrids,power market,nothing,power system stability,peer-to-peer,distribute power generation</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>range proof,preserve privacy,zero-knowledge proof,blockchain</t>
+          <t>range proof,preserve privacy,zero-knowledge proof,nothing</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>contract,blockchain,peer-to-peer,systematics,bitcoin</t>
+          <t>contract,nothing,peer-to-peer,systematics,bitcoin</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,hardware architecture,review,consensus,heterogeneous hardware,fpga,gpu,asic,cpu</t>
+          <t>nothing,distribute ledger,hardware architecture,nothing,consensus,heterogeneous hardware,fpga,gpu,asic,cpu</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>blockchain,protocol,peer-to-peer,bitcoin,history,privacy</t>
+          <t>nothing,protocol,peer-to-peer,bitcoin,history,privacy</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>peer-to-peer,bitcoin,blockchain,explosive,online bank,ip network</t>
+          <t>peer-to-peer,bitcoin,nothing,explosive,online bank,ip network</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>protocol,blockchain,distribute ledger,peer-to-peer,fault tolerance,fault tolerant system,systematics</t>
+          <t>protocol,nothing,distribute ledger,peer-to-peer,fault tolerance,fault tolerant system,systematics</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>blockchain,radiology,bitcoin,ethereum,machine learning</t>
+          <t>nothing,radiology,bitcoin,ethereum,machine learning</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>ips2,blockchain,contract</t>
+          <t>ips2,nothing,contract</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -12127,7 +12127,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>blockchain,internet of thing ,consensus,data structure</t>
+          <t>nothing,internet of thing ,consensus,data structure</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,energy decentralisation,peer-to-peer energy trade,prosumer,renewable energy</t>
+          <t>nothing,distribute ledger,energy decentralisation,peer-to-peer energy trade,prosumer,renewable energy</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>blockchain,data management,contract,consensus,data share</t>
+          <t>nothing,data management,contract,consensus,data share</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>blockchain,smart wallet,security,attack,cost</t>
+          <t>nothing,smart wallet,security,attack,cost</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>decentralize system,blockchain,consensus,proof-of-credibility</t>
+          <t>decentralize system,nothing,consensus,proof-of-credibility</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,healthcare technology,health informatics,supply chain,clinical trial,medical licensure,genomics,electronic health record</t>
+          <t>nothing,distribute ledger,healthcare technology,health informatics,supply chain,clinical trial,medical licensure,genomics,electronic health record</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>big data,blockchain,data mine,big data analytics,fintech</t>
+          <t>big data,nothing,data mine,big data analytics,fintech</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>blockchain,data integrity,referential integrity,relation,data access,data store</t>
+          <t>nothing,data integrity,referential integrity,relation,data access,data store</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>distribute ledger,blockchain,contract,ethereum,access control,xacml</t>
+          <t>distribute ledger,nothing,contract,ethereum,access control,xacml</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>attendance management system,blockchain,unforgeable,decentralization,authentication</t>
+          <t>attendance management system,nothing,unforgeable,decentralization,authentication</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>blockchain,proof-of-work,energy consumption</t>
+          <t>nothing,proof-of-work,energy consumption</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>software production,blockchain,software development integrity,test-driven software development</t>
+          <t>software production,nothing,software development integrity,test-driven software development</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -13296,7 +13296,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>blockchain,supply chain,transparency,sustainability</t>
+          <t>nothing,supply chain,transparency,sustainability</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>blockchain,artificial intelligence,deep learning,machine learning,encryption,decentralize consensus,ethereum,hyperledger,electronic medical record,emr,pharma,insurance,health information exchange,internet of things,pharmacogenomics,robotics,precision medicine</t>
+          <t>nothing,artificial intelligence,deep learning,machine learning,encryption,decentralize consensus,ethereum,hyperledger,electronic medical record,emr,pharma,insurance,health information exchange,internet of things,pharmacogenomics,robotics,precision medicine</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>blockchain,space information network,security</t>
+          <t>nothing,space information network,security</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>blockchain,authentication,decentralize infrastructure,certification authority,blockstack infrastructure</t>
+          <t>nothing,authentication,decentralize infrastructure,certification authority,blockstack infrastructure</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>blockchain,role-playing game,flip learn,emerge technology,3d animation teach material</t>
+          <t>nothing,role-playing game,flip learn,emerge technology,3d animation teach material</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -13730,7 +13730,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>blockchain,cybercrime,security,healthcare,critical national infrastructure ,scada,threat factor,red team,cyberwarfare,data breach,cyber operation</t>
+          <t>nothing,cybercrime,security,healthcare,critical national infrastructure ,scada,threat factor,red team,cyberwarfare,data breach,cyber operation</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>aesthetic,blockchain,contract,critical technical practice,interactional aesthetic</t>
+          <t>aesthetic,nothing,contract,critical technical practice,interactional aesthetic</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -13860,7 +13860,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>microlending,peer-to-peer,naive bay classifier,blockchain,hyperledger fabric</t>
+          <t>microlending,peer-to-peer,naive bay classifier,nothing,hyperledger fabric</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>blockchain,learn content creation,instructional design</t>
+          <t>nothing,learn content creation,instructional design</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,bitcoin,contract,microgrid,distribute ledger,distribute mobility service,autonomous vehicle,ridesharing,renewable energy,distribute generation,photovoltaic,electric vehicle,solar energy,electric grid</t>
+          <t>nothing,cryptocurrency,bitcoin,contract,microgrid,distribute ledger,distribute mobility service,autonomous vehicle,ridesharing,renewable energy,distribute generation,photovoltaic,electric vehicle,solar energy,electric grid</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>blockchain,consensus,performance model,fork-join queue network,mean-value analysis</t>
+          <t>nothing,consensus,performance model,fork-join queue network,mean-value analysis</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>industrial iot,industry,industry,blockchain,security,supply chain,data privacy,cryptography</t>
+          <t>industrial iot,industry,industry,nothing,security,supply chain,data privacy,cryptography</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>multi-agent system,blockchain,temporal epistemic logic with probability,formal model,specification,verification</t>
+          <t>multi-agent system,nothing,temporal epistemic logic with probability,formal model,specification,verification</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>blockchain,encryption,ecc,rsa,privacy</t>
+          <t>nothing,encryption,ecc,rsa,privacy</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -14207,7 +14207,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>electronic health record,blockchain,privacy</t>
+          <t>electronic health record,nothing,privacy</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>consensus,blockchain,state machine replication,replicate system,fault tolerance,byzantine failure</t>
+          <t>consensus,nothing,state machine replication,replicate system,fault tolerance,byzantine failure</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>blockchain,system chaincode,access control,usage control,continuous monitor</t>
+          <t>nothing,system chaincode,access control,usage control,continuous monitor</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -14556,7 +14556,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,markovian arrival process ,phase type  distribution,matrix-geometric solution,block-structured markov process,rg factorization</t>
+          <t>nothing,bitcoin,markovian arrival process ,phase type  distribution,matrix-geometric solution,block-structured markov process,rg factorization</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -14601,7 +14601,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>industrial iot,blockchain,hospital 4.0,data management,data security</t>
+          <t>industrial iot,nothing,hospital 4.0,data management,data security</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,distribute system</t>
+          <t>nothing,internet of things,distribute system</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>blockchain,cad,bim,pdm,plm,data integrity</t>
+          <t>nothing,cad,bim,pdm,plm,data integrity</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>blockchain,smart city,knowledge governance,dynamic alliance</t>
+          <t>nothing,smart city,knowledge governance,dynamic alliance</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>selfish mine,blockchain,agent-based model,empirical multiplayer game</t>
+          <t>selfish mine,nothing,agent-based model,empirical multiplayer game</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>blockchain,decentralize,peer-to-peer,distribute ledger,contract,pharmaceutical supply chain</t>
+          <t>nothing,decentralize,peer-to-peer,distribute ledger,contract,pharmaceutical supply chain</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>blockchain,artificial intelligence,decentralize network,cryptocurrency,machine learning,deep learning</t>
+          <t>nothing,artificial intelligence,decentralize network,cryptocurrency,machine learning,deep learning</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>blockchain,anomaly detection,data mine,graph analysis,security</t>
+          <t>nothing,anomaly detection,data mine,graph analysis,security</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>blockchain,security,application,vulnerability,threat</t>
+          <t>nothing,security,application,vulnerability,threat</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -15209,7 +15209,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>electronic medical record,big data,security,blockchain,deep learning</t>
+          <t>electronic medical record,big data,security,nothing,deep learning</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>blockchain,security,cyber attack,network supervision</t>
+          <t>nothing,security,cyber attack,network supervision</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>blockchain,efficiency,consensus,data overhead</t>
+          <t>nothing,efficiency,consensus,data overhead</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>blockchain,crowdsourcing service,security,privacy,trust</t>
+          <t>nothing,crowdsourcing service,security,privacy,trust</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>blockchain,privacy-preserving,cryptocurrency,internet of things</t>
+          <t>nothing,privacy-preserving,cryptocurrency,internet of things</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>blockchain,incentive mechanism,digital economy</t>
+          <t>nothing,incentive mechanism,digital economy</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>blockchain,eid,government-issued electronic identity</t>
+          <t>nothing,eid,government-issued electronic identity</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>blockchain,logistics,supply chain,trust,traceability</t>
+          <t>nothing,logistics,supply chain,trust,traceability</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -15559,7 +15559,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>blockchain,consensus,proof-of-work,proof-of-stake,dpos,pbft</t>
+          <t>nothing,consensus,proof-of-work,proof-of-stake,dpos,pbft</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>blockchain,protocol,benchmark,performance analysis,performance optimization</t>
+          <t>nothing,protocol,benchmark,performance analysis,performance optimization</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>blockchain,review,business,economics,citespace</t>
+          <t>nothing,nothing,business,economics,citespace</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>absorptive capacity,firm performance,technology,start-ups,blockchain,digital transformation</t>
+          <t>absorptive capacity,firm performance,technology,start-ups,nothing,digital transformation</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>blockchain,supply chain,review</t>
+          <t>nothing,supply chain,nothing</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -15867,7 +15867,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,conceptualization,terminology,technology adoption,o39</t>
+          <t>nothing,distribute ledger,conceptualization,terminology,technology adoption,o39</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>internet of things,blockchain,biot,application,security</t>
+          <t>internet of things,nothing,biot,application,security</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>blockchain,contract,project ecosystem,technical,legal issue</t>
+          <t>nothing,contract,project ecosystem,technical,legal issue</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>blockchain,education,review</t>
+          <t>nothing,education,nothing</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>blockchain,e-commerce,social shop,loyalty program,transformation</t>
+          <t>nothing,e-commerce,social shop,loyalty program,transformation</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>blockchain,bibliometric,consensus,security,review</t>
+          <t>nothing,bibliometric,consensus,security,nothing</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t xml:space="preserve">blockchain,challenge,e-health,electronic health record </t>
+          <t xml:space="preserve">nothing,challenge,e-health,electronic health record </t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>blockchain,supply chain,security</t>
+          <t>nothing,supply chain,security</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>blockchain,byzantine fault tolerance,distribute ledger,bitcoin,distribute system</t>
+          <t>nothing,byzantine fault tolerance,distribute ledger,bitcoin,distribute system</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>contract,software engineer,blockchain</t>
+          <t>contract,software engineer,nothing</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>blockchain,proof-of-stake,dpos,proof-of-work,poa,poet,raft,hyperledger,his</t>
+          <t>nothing,proof-of-stake,dpos,proof-of-work,poa,poet,raft,hyperledger,his</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,distribute ledger</t>
+          <t>nothing,internet of things,distribute ledger</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>blockchain,security,internet of things,contract,artificial intelligence,cloud compute</t>
+          <t>nothing,security,internet of things,contract,artificial intelligence,cloud compute</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>blockchain,shari’ah,structure,mechanism</t>
+          <t>nothing,shari’ah,structure,mechanism</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,distribute ledger technology ,distribute consensus</t>
+          <t>nothing,internet of things,distribute ledger technology ,distribute consensus</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>blockchain,proof of stack,consensus,open network protocol,hybrid consensus,puzzle design</t>
+          <t>nothing,proof of stack,consensus,open network protocol,hybrid consensus,puzzle design</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -16747,7 +16747,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,distribute system,internet of things,security</t>
+          <t>nothing,distribute ledger,distribute system,internet of things,security</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>blockchain,biometrics,security,privacy,vulnerability</t>
+          <t>nothing,biometrics,security,privacy,vulnerability</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>blockchain,private chain,implementation,practical insight</t>
+          <t>nothing,private chain,implementation,practical insight</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,security</t>
+          <t>nothing,internet of things,security</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>blockchain,book management,web application</t>
+          <t>nothing,book management,web application</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t xml:space="preserve">consensus,blockchain,enterprise service,layer architecture,service-oriented architecture </t>
+          <t xml:space="preserve">consensus,nothing,enterprise service,layer architecture,service-oriented architecture </t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>blockchain,privacy,distribute file storage</t>
+          <t>nothing,privacy,distribute file storage</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,electronic payment,decentralize payment system,mine,energy efficiency,bitcoin,ethereum,monero,contract,ransomware,profitability</t>
+          <t>nothing,cryptocurrency,electronic payment,decentralize payment system,mine,energy efficiency,bitcoin,ethereum,monero,contract,ransomware,profitability</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -17354,7 +17354,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>blockchain,contract,use case</t>
+          <t>nothing,contract,use case</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>blockchain,vehicular adhoc network,vanet,security</t>
+          <t>nothing,vehicular adhoc network,vanet,security</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>iomt,blockchain,secure network,internet of things</t>
+          <t>iomt,nothing,secure network,internet of things</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>cryptography,algorithm,hash,blockchain,digital signature</t>
+          <t>cryptography,algorithm,hash,nothing,digital signature</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>blockchain,,internet of thing ,wireless sensor network ,security</t>
+          <t>nothing,,internet of thing ,wireless sensor network ,security</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>blockchain,cryptography,bitcoin,ethereum,hyperledger</t>
+          <t>nothing,cryptography,bitcoin,ethereum,hyperledger</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>contract,ethereum,review,ecosystem</t>
+          <t>contract,ethereum,nothing,ecosystem</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>bitcoin,concept map,contract,review,digital electronics</t>
+          <t>bitcoin,concept map,contract,nothing,digital electronics</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>artificial intelligence,technological convergence,scope ,distribute ledger,review,lively kernel</t>
+          <t>artificial intelligence,technological convergence,scope ,distribute ledger,nothing,lively kernel</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>blockchain,consensus method,internet of thing ,hyperledger,blockchain</t>
+          <t>nothing,consensus method,internet of thing ,hyperledger,nothing</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -18852,7 +18852,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>blockchain,consensus,performance evaluation criterion,security vulnerability,trust,permission model</t>
+          <t>nothing,consensus,performance evaluation criterion,security vulnerability,trust,permission model</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>cryptocurrency,bitcoin,review,price bubble</t>
+          <t>cryptocurrency,bitcoin,nothing,price bubble</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>blockchain,privacy,cryptocurrency,anonymity</t>
+          <t>nothing,privacy,cryptocurrency,anonymity</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>blockchain,sidechains,contract,decentralize application,decentralize ledger,digital asset,cryptocurrency</t>
+          <t>nothing,sidechains,contract,decentralize application,decentralize ledger,digital asset,cryptocurrency</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,contract,distribute application</t>
+          <t>nothing,distribute ledger,contract,distribute application</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>contract,blockchain,verification,correctness,security assurance</t>
+          <t>contract,nothing,verification,correctness,security assurance</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,token,ico</t>
+          <t>nothing,cryptocurrency,token,ico</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -19282,7 +19282,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t xml:space="preserve">contract,development process model,software engineer,blockchain,distribute ledger,survey,design science,trustless append-only decentralize digital ledger </t>
+          <t xml:space="preserve">contract,development process model,software engineer,nothing,distribute ledger,survey,design science,trustless append-only decentralize digital ledger </t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -19930,7 +19930,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>blockchain,contract,51% attack,proof-of-work,proof-of-stake,dpos</t>
+          <t>nothing,contract,51% attack,proof-of-work,proof-of-stake,dpos</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>cloud storage,blockchain,security,architecture</t>
+          <t>cloud storage,nothing,security,architecture</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>blockchain,contract,peer-to-peer,fee,data model,reliability,ecosystem</t>
+          <t>nothing,contract,peer-to-peer,fee,data model,reliability,ecosystem</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>blockchain,contract,supply chain,peer-to-peer,distribute ledger,systematics,bibliography</t>
+          <t>nothing,contract,supply chain,peer-to-peer,distribute ledger,systematics,bibliography</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>blockchain,medical service,scalability,systematics,peer-to-peer,database,data mine</t>
+          <t>nothing,medical service,scalability,systematics,peer-to-peer,database,data mine</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>blockchain,smart phone,peer-to-peer,task analysis,security,performance evaluation</t>
+          <t>nothing,smart phone,peer-to-peer,task analysis,security,performance evaluation</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -20231,7 +20231,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>blockchain,scalability,bitcoin,throughput,measurement</t>
+          <t>nothing,scalability,bitcoin,throughput,measurement</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>blockchain,security,ddos,bitcoin</t>
+          <t>nothing,security,ddos,bitcoin</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>blockchain,medical service,systematics,market research,bitcoin</t>
+          <t>nothing,medical service,systematics,market research,bitcoin</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -20403,7 +20403,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>cloud compute,blockchain,intrusion detection,grid compute,operate system</t>
+          <t>cloud compute,nothing,intrusion detection,grid compute,operate system</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>supply chain,blockchain,distribute ledger,organization,bibliography,cryptocurrency</t>
+          <t>supply chain,nothing,distribute ledger,organization,bibliography,cryptocurrency</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>blockchain,scalability,sharding,first layer solution,second layer solution</t>
+          <t>nothing,scalability,sharding,first layer solution,second layer solution</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -20575,7 +20575,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>blockchain,security,peer-to-peer,software define network,computer architecture,software,control system</t>
+          <t>nothing,security,peer-to-peer,software define network,computer architecture,software,control system</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>5g mobile communication,blockchain,security,cloud compute,computer architecture,throughput,reliability</t>
+          <t>5g mobile communication,nothing,security,cloud compute,computer architecture,throughput,reliability</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -20661,7 +20661,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>hyperledger fabric,hyperledger,blockchain,chaincode</t>
+          <t>hyperledger fabric,hyperledger,nothing,chaincode</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>blockchain,review,survey</t>
+          <t>nothing,nothing,survey</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,performance model,performance evaluation,systematic survey</t>
+          <t>nothing,distribute ledger,performance model,performance evaluation,systematic survey</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -20919,7 +20919,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>consensus,peer-to-peer,industry,cloud compute,blockchain,security,ecosystem</t>
+          <t>consensus,peer-to-peer,industry,cloud compute,nothing,security,ecosystem</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>internet of things,medical service,edge compute,sensor,blockchain,quality of service,big data</t>
+          <t>internet of things,medical service,edge compute,sensor,nothing,quality of service,big data</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>peer-to-peer,physical layer,price,energy management,blockchain,energy resource,australia</t>
+          <t>peer-to-peer,physical layer,price,energy management,nothing,energy resource,australia</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,contract,smart contract application,smart contract operation,recent advance in smart contract</t>
+          <t>bitcoin,nothing,contract,smart contract application,smart contract operation,recent advance in smart contract</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>internet of thing ,security,blockchain,ddos,ethereum,contract</t>
+          <t>internet of thing ,security,nothing,ddos,ethereum,contract</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -21263,7 +21263,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>blockchain,financial industry,ethic,ethical challenge,adoption,adoption</t>
+          <t>nothing,financial industry,ethic,ethical challenge,adoption,adoption</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>blockchain,healthcare,review,medical data</t>
+          <t>nothing,healthcare,nothing,medical data</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>blockchain,healthcare,electronic health record system,security,privacy</t>
+          <t>nothing,healthcare,electronic health record system,security,privacy</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>o2,z1,fintech,innovation,blockchain,proof-of-work,mine industry</t>
+          <t>o2,z1,fintech,innovation,nothing,proof-of-work,mine industry</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -21521,7 +21521,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>smart city,blockchain,security,privacy,consensus,contract,smart community</t>
+          <t>smart city,nothing,security,privacy,consensus,contract,smart community</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>blockchain,smart healthcare,security,privacy</t>
+          <t>nothing,smart healthcare,security,privacy</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -21607,7 +21607,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>blockchain,health system,scoping review,distribute ledger</t>
+          <t>nothing,health system,scoping review,distribute ledger</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>blockchain,internet of things,industrial iot,decentralization,security</t>
+          <t>nothing,internet of things,industrial iot,decentralization,security</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>industrial internet of thing,cloud exchange,blockchain,decentralization,reputation system</t>
+          <t>industrial internet of thing,cloud exchange,nothing,decentralization,reputation system</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -21779,7 +21779,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>consensus,blockchain,internet of energy,smart grid,vehicle-to-grid</t>
+          <t>consensus,nothing,internet of energy,smart grid,vehicle-to-grid</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>industrial iot,security,privacy,blockchain,smart factory,smart grid,supply chain,e-health,vanet</t>
+          <t>industrial iot,security,privacy,nothing,smart factory,smart grid,supply chain,e-health,vanet</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -21951,7 +21951,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>5g,internet of things,fog compute,blockchain,security,privacy</t>
+          <t>5g,internet of things,fog compute,nothing,security,privacy</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -22080,7 +22080,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>cryptocurrency,blockchain,token offer,cryptoexchanges</t>
+          <t>cryptocurrency,nothing,token offer,cryptoexchanges</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>model-driven engineer,enterprise engineer,archimate,demo,blockchain,hyperledger composer</t>
+          <t>model-driven engineer,enterprise engineer,archimate,demo,nothing,hyperledger composer</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -22209,7 +22209,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>blockchain,trust,security,privacy,ecommerce application,transform,dimension,enterprise</t>
+          <t>nothing,trust,security,privacy,ecommerce application,transform,dimension,enterprise</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>internet of things,blockchain,biot</t>
+          <t>internet of things,nothing,biot</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -22296,7 +22296,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>blockchain,virtual item,platform plan,business model</t>
+          <t>nothing,virtual item,platform plan,business model</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -22382,7 +22382,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>blockchain,digital health,edge compute,mobile compute,mobile application,majority protocol,gpu compute</t>
+          <t>nothing,digital health,edge compute,mobile compute,mobile application,majority protocol,gpu compute</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -22557,7 +22557,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>blockchain,multi-agent system,ethic,transparency,trust</t>
+          <t>nothing,multi-agent system,ethic,transparency,trust</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>blockchain,hyperledger fabric,internet of things,iot security,raspberry pi,application</t>
+          <t>nothing,hyperledger fabric,internet of things,iot security,raspberry pi,application</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -22643,7 +22643,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>blockchain,contract,cryptocurrency,share resource,internet 3.0</t>
+          <t>nothing,contract,cryptocurrency,share resource,internet 3.0</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -22687,7 +22687,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,fpga,hardware security module,physical unclonable function</t>
+          <t>nothing,bitcoin,fpga,hardware security module,physical unclonable function</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -22730,7 +22730,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>blockchain,crytography,data security,data trust</t>
+          <t>nothing,crytography,data security,data trust</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>blockchain,bibliometric analysis,distribute ledger,power system,electrical energy trade,security challenge</t>
+          <t>nothing,bibliometric analysis,distribute ledger,power system,electrical energy trade,security challenge</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -22859,7 +22859,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>blockchain,supply chain,coordination,mean-risk analysis,fashionable product</t>
+          <t>nothing,supply chain,coordination,mean-risk analysis,fashionable product</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -22905,7 +22905,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>security,blockchain,identity document,decentralize pki</t>
+          <t>security,nothing,identity document,decentralize pki</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>blockchain,technical risk,risk research</t>
+          <t>nothing,technical risk,risk research</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>contract,blockchain,distribute registry,public procurement,electronic registration,international trade deal,к10,k15,k41,o38,l88</t>
+          <t>contract,nothing,distribute registry,public procurement,electronic registration,international trade deal,к10,k15,k41,o38,l88</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -23077,7 +23077,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>cloud storage,blockchain,third party authenticator,public audit</t>
+          <t>cloud storage,nothing,third party authenticator,public audit</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -23163,7 +23163,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin mine,dynamic game theory,differential game,hamilton–jacobi–bellman equation,social optimum,nash equilibrium,myopic nash equilibrium,pigovian tax</t>
+          <t>nothing,bitcoin mine,dynamic game theory,differential game,hamilton–jacobi–bellman equation,social optimum,nash equilibrium,myopic nash equilibrium,pigovian tax</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>blockchain,ttp,cyberattacks,decentralise,distribute ledger,artificial intelligence,internet of things</t>
+          <t>nothing,ttp,cyberattacks,decentralise,distribute ledger,artificial intelligence,internet of things</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -23382,7 +23382,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>blockchain,smart city,taxonomy,business model</t>
+          <t>nothing,smart city,taxonomy,business model</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -23425,7 +23425,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>blockchain,fault tolerance,consensus,pbft,cft,ibft,poa</t>
+          <t>nothing,fault tolerance,consensus,pbft,cft,ibft,poa</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,r,om oracle,delay,consensus</t>
+          <t>nothing,bitcoin,r,om oracle,delay,consensus</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>steganography,blockchain,bitcoin,behavior</t>
+          <t>steganography,nothing,bitcoin,behavior</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -23557,7 +23557,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,contract,disruptive technology</t>
+          <t>nothing,distribute ledger,contract,disruptive technology</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -23603,7 +23603,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>blockchain,token economy,cryptocurrency,risk,compliance,legislation,blockchain,liechtenstein,act,fatf,european parliament,money launder,terrorism finance,corruption</t>
+          <t>nothing,token economy,cryptocurrency,risk,compliance,legislation,nothing,liechtenstein,act,fatf,european parliament,money launder,terrorism finance,corruption</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -23647,7 +23647,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>blockchain,decentralize network,merkle tree,consensus,contract,hyperledger</t>
+          <t>nothing,decentralize network,merkle tree,consensus,contract,hyperledger</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -23693,7 +23693,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>blockchain,contract,decentralization,immutable,data privacy</t>
+          <t>nothing,contract,decentralization,immutable,data privacy</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -23736,7 +23736,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>blockchain,security,privacy,trust,cryptocurrency,cyberspace,contract,decentralization,peer-to-peer network,security,protocol,cryptography</t>
+          <t>nothing,security,privacy,trust,cryptocurrency,cyberspace,contract,decentralization,peer-to-peer network,security,protocol,cryptography</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -23779,7 +23779,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>blockchain,security,multimedia,anonymity,selfish mine</t>
+          <t>nothing,security,multimedia,anonymity,selfish mine</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -23826,7 +23826,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>secure multi-party computation,blockchain,access control,privacy-preserving technology</t>
+          <t>secure multi-party computation,nothing,access control,privacy-preserving technology</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>blockchain,industry,another keyword</t>
+          <t>nothing,industry,another keyword</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger technology ,st,ardization,system engineer</t>
+          <t>nothing,distribute ledger technology ,st,ardization,system engineer</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -23955,7 +23955,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>blockchain,bitcoin,consensus,cryptocurrency</t>
+          <t>nothing,bitcoin,consensus,cryptocurrency</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -23998,7 +23998,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>blockchain,decentralization,scalability,bite coin</t>
+          <t>nothing,decentralization,scalability,bite coin</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -24041,7 +24041,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>research,review,scientometrics,latent dirichlet allocation,citespace</t>
+          <t>research,nothing,scientometrics,latent dirichlet allocation,citespace</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -24135,7 +24135,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>blockchain,application,technology convergence,construction industry,construction contract,cost management</t>
+          <t>nothing,application,technology convergence,construction industry,construction contract,cost management</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -24183,7 +24183,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>blockchain,decentralization,cryptocurrency,concept,type,issue</t>
+          <t>nothing,decentralization,cryptocurrency,concept,type,issue</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>contract,ethereum,blockchain</t>
+          <t>contract,ethereum,nothing</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>consensus,cap theorem,blockchain,peer-to-peer network</t>
+          <t>consensus,cap theorem,nothing,peer-to-peer network</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -24366,7 +24366,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>smart city,internet of things,blockchain,digital technology,connect vehicle</t>
+          <t>smart city,internet of things,nothing,digital technology,connect vehicle</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>internet of thing ,blockchain,security,bitcoin,consensus,decentralize,ledger</t>
+          <t>internet of thing ,nothing,security,bitcoin,consensus,decentralize,ledger</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -24456,7 +24456,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>blockchain,proof-of-work,proof-of-stake,pbft,poa,hyperledger</t>
+          <t>nothing,proof-of-work,proof-of-stake,pbft,poa,hyperledger</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -24499,7 +24499,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>blockchain,application,bitcoin,initial coin offer,l26,n20,n70,o33</t>
+          <t>nothing,application,bitcoin,initial coin offer,l26,n20,n70,o33</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -24546,7 +24546,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>blockchain,finance,market,uae,innovation,sustainability</t>
+          <t>nothing,finance,market,uae,innovation,sustainability</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -24589,7 +24589,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>blockchain,consensus,distribute ledger,security</t>
+          <t>nothing,consensus,distribute ledger,security</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -24632,7 +24632,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>blockchain,platform,state,data storage,key-value,data privacy,leveldb,rocksdb</t>
+          <t>nothing,platform,state,data storage,key-value,data privacy,leveldb,rocksdb</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>blockchain,artificial intelligence,distribute ledger,machine learning,contract</t>
+          <t>nothing,artificial intelligence,distribute ledger,machine learning,contract</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -24854,7 +24854,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>blockchain,main path analysis,internet of things,healthcare,supply chain</t>
+          <t>nothing,main path analysis,internet of things,healthcare,supply chain</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -24901,7 +24901,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>reputation system,blockchain,contract,e-commerce,hyperledger</t>
+          <t>reputation system,nothing,contract,e-commerce,hyperledger</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -24944,7 +24944,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>blockchain,cross border,custom procedure</t>
+          <t>nothing,cross border,custom procedure</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -24987,7 +24987,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>blockchain,information security,intelligence unit,investigation unit</t>
+          <t>nothing,information security,intelligence unit,investigation unit</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -25030,7 +25030,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>blockchain,quantum compute,quantum cryptography,quantum money</t>
+          <t>nothing,quantum compute,quantum cryptography,quantum money</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -25118,7 +25118,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>blockchain,contract,evaluation framework,empirical evaluation</t>
+          <t>nothing,contract,evaluation framework,empirical evaluation</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -25161,7 +25161,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>tor,blockchain,security,anonymity,privacy,cyber attack,onion service,pii,encryption,security</t>
+          <t>tor,nothing,security,anonymity,privacy,cyber attack,onion service,pii,encryption,security</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>bitcoin,blockchain,privacy protection,cryptography</t>
+          <t>bitcoin,nothing,privacy protection,cryptography</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>healthcare,internet of medical thing,security,blockchain</t>
+          <t>healthcare,internet of medical thing,security,nothing</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -25291,7 +25291,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>blockchain,application,tourism,tourism market</t>
+          <t>nothing,application,tourism,tourism market</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -25334,7 +25334,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,ehr,healthcare application,security,interoperability</t>
+          <t>nothing,distribute ledger,ehr,healthcare application,security,interoperability</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -25378,7 +25378,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>blockchain,healthcare,review</t>
+          <t>nothing,healthcare,nothing</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -25422,7 +25422,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>blockchain,technology,bibliometric study</t>
+          <t>nothing,technology,bibliometric study</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>blockchain,systematic map study,research,application</t>
+          <t>nothing,systematic map study,research,application</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -25637,7 +25637,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>blockchain,learn object,adaptive learn,curriculum design</t>
+          <t>nothing,learn object,adaptive learn,curriculum design</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -25723,7 +25723,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>blockchain,smart-contracts,distribute ledger,transparency</t>
+          <t>nothing,smart-contracts,distribute ledger,transparency</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -25770,7 +25770,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>threat model,stride,linddun,blockchain</t>
+          <t>threat model,stride,linddun,nothing</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -25813,7 +25813,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>blockchain,contract,supply chain,project management,construction</t>
+          <t>nothing,contract,supply chain,project management,construction</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -25902,7 +25902,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>blockchain,uav security,uav,uaanet,manet</t>
+          <t>nothing,uav security,uav,uaanet,manet</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -25945,7 +25945,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>blockchain,health 4.0,industry,decentralization,data management,trust,traceability,supply chain</t>
+          <t>nothing,health 4.0,industry,decentralization,data management,trust,traceability,supply chain</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -25988,7 +25988,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>blockchain,crypto asset,security,poison attack</t>
+          <t>nothing,crypto asset,security,poison attack</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -26032,7 +26032,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>blockchain,healthcare,patient-centred</t>
+          <t>nothing,healthcare,patient-centred</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>blockchain,footwear,supply chain,tow matrix,diffusion of innovation,disruptive technology,transparency,traceability,competitive position</t>
+          <t>nothing,footwear,supply chain,tow matrix,diffusion of innovation,disruptive technology,transparency,traceability,competitive position</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -26118,7 +26118,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>blockchain,certificate authority,cloud compute,public key infrastructure,contract,byzantine fault tolerance,state machine replication,partition,sharding</t>
+          <t>nothing,certificate authority,cloud compute,public key infrastructure,contract,byzantine fault tolerance,state machine replication,partition,sharding</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>blockchain,bank,business model</t>
+          <t>nothing,bank,business model</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>education,blockchain,privacy,security,systematic map study</t>
+          <t>education,nothing,privacy,security,systematic map study</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>blockchain,selfish mine,stalker attack,distribute consensus</t>
+          <t>nothing,selfish mine,stalker attack,distribute consensus</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>blockchain,distribute ledger,bank industry,contract</t>
+          <t>nothing,distribute ledger,bank industry,contract</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -26388,7 +26388,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>blockchain,hash,bigdata analytics</t>
+          <t>nothing,hash,bigdata analytics</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>smart city,blockchain,technology,application,service</t>
+          <t>smart city,nothing,technology,application,service</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>blockchain,civil registration,decentralize application</t>
+          <t>nothing,civil registration,decentralize application</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>hospitality,network science,blockchain,tourism management,competitive advantage</t>
+          <t>hospitality,network science,nothing,tourism management,competitive advantage</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -26647,7 +26647,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>blockchain,bpmn,business process,contract,temporal constraint,trust</t>
+          <t>nothing,bpmn,business process,contract,temporal constraint,trust</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>process choreography,reusability,blockchain,ethereum</t>
+          <t>process choreography,reusability,nothing,ethereum</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>blockchain,threat,attack,security</t>
+          <t>nothing,threat,attack,security</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -26948,7 +26948,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>blockchain,cryptocurrency,energy consumption,distribute ledger,sustainability</t>
+          <t>nothing,cryptocurrency,energy consumption,distribute ledger,sustainability</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -26997,7 +26997,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>blockchain,food supply chain,thematic analysis</t>
+          <t>nothing,food supply chain,thematic analysis</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -27044,7 +27044,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>blockchain,byzantine fault tolerance,consensus,cryptography,decentralize system,distribute system</t>
+          <t>nothing,byzantine fault tolerance,consensus,cryptography,decentralize system,distribute system</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -27087,7 +27087,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>blockchain,edge compute,artificial intelligence,edge ai,e-health,u-health,internet of things,internet of things,ecg monitor,ecg feature extraction,ubiquitous health,ethereum</t>
+          <t>nothing,edge compute,artificial intelligence,edge ai,e-health,u-health,internet of things,internet of things,ecg monitor,ecg feature extraction,ubiquitous health,ethereum</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>blockchain,application,distribute ledger,framework</t>
+          <t>nothing,application,distribute ledger,framework</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -27256,7 +27256,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>blockchain,security,cryptocurrency,contract</t>
+          <t>nothing,security,cryptocurrency,contract</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>contract,blockchain,cryptocurrency,decentralization</t>
+          <t>contract,nothing,cryptocurrency,decentralization</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -27342,7 +27342,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>5g network,blockchain,5g internet of thing,5g service,machine learning,security,privacy</t>
+          <t>5g network,nothing,5g internet of thing,5g service,machine learning,security,privacy</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">

--- a/src/out/all-preprocessed.xlsx
+++ b/src/out/all-preprocessed.xlsx
@@ -8859,7 +8859,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>security,privacy,human and societal aspect of security and privacy,privacy protection,security service,system security,distribute system security</t>
+          <t>security,privacy,human and societal aspect of security and privacy,privacy protection,security service,system security,system security</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>security,privacy,system security,distribute system security</t>
+          <t>security,privacy,system security,system security</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
